--- a/Data/Prot.xlsx
+++ b/Data/Prot.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7056" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14076" uniqueCount="1067">
   <si>
     <t xml:space="preserve">Сумма разногласий</t>
   </si>
@@ -2699,6 +2699,558 @@
   </si>
   <si>
     <t xml:space="preserve">609032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">389</t>
   </si>
 </sst>
 </file>
@@ -27636,7 +28188,7 @@
     </row>
     <row r="219" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="31" t="s">
-        <v>20</v>
+        <v>883</v>
       </c>
       <c r="B219" s="32" t="s">
         <v>21</v>
@@ -27671,7 +28223,7 @@
     </row>
     <row r="220" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="31" t="s">
-        <v>30</v>
+        <v>884</v>
       </c>
       <c r="B220" s="32" t="s">
         <v>693</v>
@@ -27706,7 +28258,7 @@
     </row>
     <row r="221" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="31" t="s">
-        <v>33</v>
+        <v>885</v>
       </c>
       <c r="B221" s="32" t="s">
         <v>695</v>
@@ -27741,7 +28293,7 @@
     </row>
     <row r="222" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="31" t="s">
-        <v>37</v>
+        <v>886</v>
       </c>
       <c r="B222" s="32" t="s">
         <v>696</v>
@@ -27776,7 +28328,7 @@
     </row>
     <row r="223" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="31" t="s">
-        <v>41</v>
+        <v>887</v>
       </c>
       <c r="B223" s="32" t="s">
         <v>697</v>
@@ -27811,7 +28363,7 @@
     </row>
     <row r="224" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="31" t="s">
-        <v>45</v>
+        <v>888</v>
       </c>
       <c r="B224" s="32" t="s">
         <v>698</v>
@@ -27846,7 +28398,7 @@
     </row>
     <row r="225" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="31" t="s">
-        <v>48</v>
+        <v>889</v>
       </c>
       <c r="B225" s="32" t="s">
         <v>699</v>
@@ -27881,7 +28433,7 @@
     </row>
     <row r="226" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="31" t="s">
-        <v>52</v>
+        <v>890</v>
       </c>
       <c r="B226" s="32" t="s">
         <v>700</v>
@@ -27916,7 +28468,7 @@
     </row>
     <row r="227" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="31" t="s">
-        <v>55</v>
+        <v>891</v>
       </c>
       <c r="B227" s="32" t="s">
         <v>701</v>
@@ -27951,7 +28503,7 @@
     </row>
     <row r="228" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="31" t="s">
-        <v>58</v>
+        <v>892</v>
       </c>
       <c r="B228" s="32" t="s">
         <v>702</v>
@@ -27986,7 +28538,7 @@
     </row>
     <row r="229" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="31" t="s">
-        <v>61</v>
+        <v>893</v>
       </c>
       <c r="B229" s="32" t="s">
         <v>703</v>
@@ -28021,7 +28573,7 @@
     </row>
     <row r="230" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="31" t="s">
-        <v>64</v>
+        <v>894</v>
       </c>
       <c r="B230" s="32" t="s">
         <v>704</v>
@@ -28056,7 +28608,7 @@
     </row>
     <row r="231" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="31" t="s">
-        <v>67</v>
+        <v>895</v>
       </c>
       <c r="B231" s="32" t="s">
         <v>705</v>
@@ -28091,7 +28643,7 @@
     </row>
     <row r="232" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="31" t="s">
-        <v>71</v>
+        <v>896</v>
       </c>
       <c r="B232" s="32" t="s">
         <v>706</v>
@@ -28126,7 +28678,7 @@
     </row>
     <row r="233" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="31" t="s">
-        <v>75</v>
+        <v>897</v>
       </c>
       <c r="B233" s="32" t="s">
         <v>707</v>
@@ -28161,7 +28713,7 @@
     </row>
     <row r="234" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="31" t="s">
-        <v>78</v>
+        <v>898</v>
       </c>
       <c r="B234" s="32" t="s">
         <v>708</v>
@@ -28196,7 +28748,7 @@
     </row>
     <row r="235" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="31" t="s">
-        <v>81</v>
+        <v>899</v>
       </c>
       <c r="B235" s="32" t="s">
         <v>709</v>
@@ -28231,7 +28783,7 @@
     </row>
     <row r="236" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="31" t="s">
-        <v>84</v>
+        <v>900</v>
       </c>
       <c r="B236" s="32" t="s">
         <v>710</v>
@@ -28266,7 +28818,7 @@
     </row>
     <row r="237" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="31" t="s">
-        <v>87</v>
+        <v>901</v>
       </c>
       <c r="B237" s="32" t="s">
         <v>711</v>
@@ -28301,7 +28853,7 @@
     </row>
     <row r="238" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="31" t="s">
-        <v>90</v>
+        <v>902</v>
       </c>
       <c r="B238" s="32" t="s">
         <v>712</v>
@@ -28336,7 +28888,7 @@
     </row>
     <row r="239" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="31" t="s">
-        <v>93</v>
+        <v>903</v>
       </c>
       <c r="B239" s="32" t="s">
         <v>713</v>
@@ -28371,7 +28923,7 @@
     </row>
     <row r="240" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="31" t="s">
-        <v>96</v>
+        <v>904</v>
       </c>
       <c r="B240" s="32" t="s">
         <v>714</v>
@@ -28406,7 +28958,7 @@
     </row>
     <row r="241" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="31" t="s">
-        <v>99</v>
+        <v>905</v>
       </c>
       <c r="B241" s="32" t="s">
         <v>715</v>
@@ -28441,7 +28993,7 @@
     </row>
     <row r="242" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="31" t="s">
-        <v>102</v>
+        <v>906</v>
       </c>
       <c r="B242" s="32" t="s">
         <v>716</v>
@@ -28476,7 +29028,7 @@
     </row>
     <row r="243" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="31" t="s">
-        <v>106</v>
+        <v>907</v>
       </c>
       <c r="B243" s="32" t="s">
         <v>717</v>
@@ -28511,7 +29063,7 @@
     </row>
     <row r="244" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="31" t="s">
-        <v>109</v>
+        <v>908</v>
       </c>
       <c r="B244" s="32" t="s">
         <v>718</v>
@@ -28546,7 +29098,7 @@
     </row>
     <row r="245" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="31" t="s">
-        <v>112</v>
+        <v>909</v>
       </c>
       <c r="B245" s="32" t="s">
         <v>719</v>
@@ -28581,7 +29133,7 @@
     </row>
     <row r="246" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="31" t="s">
-        <v>115</v>
+        <v>910</v>
       </c>
       <c r="B246" s="32" t="s">
         <v>720</v>
@@ -28616,7 +29168,7 @@
     </row>
     <row r="247" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="31" t="s">
-        <v>118</v>
+        <v>911</v>
       </c>
       <c r="B247" s="32" t="s">
         <v>721</v>
@@ -28651,7 +29203,7 @@
     </row>
     <row r="248" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="31" t="s">
-        <v>121</v>
+        <v>912</v>
       </c>
       <c r="B248" s="32" t="s">
         <v>722</v>
@@ -28686,7 +29238,7 @@
     </row>
     <row r="249" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="31" t="s">
-        <v>124</v>
+        <v>913</v>
       </c>
       <c r="B249" s="32" t="s">
         <v>724</v>
@@ -28721,7 +29273,7 @@
     </row>
     <row r="250" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="31" t="s">
-        <v>127</v>
+        <v>914</v>
       </c>
       <c r="B250" s="32" t="s">
         <v>725</v>
@@ -28756,7 +29308,7 @@
     </row>
     <row r="251" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="31" t="s">
-        <v>130</v>
+        <v>915</v>
       </c>
       <c r="B251" s="32" t="s">
         <v>726</v>
@@ -28791,7 +29343,7 @@
     </row>
     <row r="252" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="31" t="s">
-        <v>133</v>
+        <v>916</v>
       </c>
       <c r="B252" s="32" t="s">
         <v>727</v>
@@ -28826,7 +29378,7 @@
     </row>
     <row r="253" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="31" t="s">
-        <v>136</v>
+        <v>917</v>
       </c>
       <c r="B253" s="32" t="s">
         <v>728</v>
@@ -28861,7 +29413,7 @@
     </row>
     <row r="254" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="31" t="s">
-        <v>140</v>
+        <v>918</v>
       </c>
       <c r="B254" s="32" t="s">
         <v>729</v>
@@ -28896,7 +29448,7 @@
     </row>
     <row r="255" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="31" t="s">
-        <v>143</v>
+        <v>919</v>
       </c>
       <c r="B255" s="32" t="s">
         <v>730</v>
@@ -28931,7 +29483,7 @@
     </row>
     <row r="256" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="31" t="s">
-        <v>147</v>
+        <v>920</v>
       </c>
       <c r="B256" s="32" t="s">
         <v>731</v>
@@ -28966,7 +29518,7 @@
     </row>
     <row r="257" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="31" t="s">
-        <v>150</v>
+        <v>921</v>
       </c>
       <c r="B257" s="32" t="s">
         <v>732</v>
@@ -29001,7 +29553,7 @@
     </row>
     <row r="258" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="31" t="s">
-        <v>153</v>
+        <v>922</v>
       </c>
       <c r="B258" s="32" t="s">
         <v>733</v>
@@ -29036,7 +29588,7 @@
     </row>
     <row r="259" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="31" t="s">
-        <v>156</v>
+        <v>923</v>
       </c>
       <c r="B259" s="32" t="s">
         <v>734</v>
@@ -29071,7 +29623,7 @@
     </row>
     <row r="260" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="31" t="s">
-        <v>159</v>
+        <v>924</v>
       </c>
       <c r="B260" s="32" t="s">
         <v>735</v>
@@ -29106,7 +29658,7 @@
     </row>
     <row r="261" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="31" t="s">
-        <v>162</v>
+        <v>925</v>
       </c>
       <c r="B261" s="32" t="s">
         <v>736</v>
@@ -29141,7 +29693,7 @@
     </row>
     <row r="262" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="31" t="s">
-        <v>165</v>
+        <v>926</v>
       </c>
       <c r="B262" s="32" t="s">
         <v>737</v>
@@ -29176,7 +29728,7 @@
     </row>
     <row r="263" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="31" t="s">
-        <v>169</v>
+        <v>927</v>
       </c>
       <c r="B263" s="32" t="s">
         <v>738</v>
@@ -29211,7 +29763,7 @@
     </row>
     <row r="264" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="31" t="s">
-        <v>172</v>
+        <v>928</v>
       </c>
       <c r="B264" s="32" t="s">
         <v>739</v>
@@ -29246,7 +29798,7 @@
     </row>
     <row r="265" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="31" t="s">
-        <v>176</v>
+        <v>929</v>
       </c>
       <c r="B265" s="32" t="s">
         <v>740</v>
@@ -29281,7 +29833,7 @@
     </row>
     <row r="266" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="31" t="s">
-        <v>180</v>
+        <v>930</v>
       </c>
       <c r="B266" s="32" t="s">
         <v>741</v>
@@ -29316,7 +29868,7 @@
     </row>
     <row r="267" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="31" t="s">
-        <v>182</v>
+        <v>931</v>
       </c>
       <c r="B267" s="32" t="s">
         <v>742</v>
@@ -29351,7 +29903,7 @@
     </row>
     <row r="268" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="31" t="s">
-        <v>186</v>
+        <v>932</v>
       </c>
       <c r="B268" s="32" t="s">
         <v>743</v>
@@ -29386,7 +29938,7 @@
     </row>
     <row r="269" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="31" t="s">
-        <v>189</v>
+        <v>933</v>
       </c>
       <c r="B269" s="32" t="s">
         <v>744</v>
@@ -29421,7 +29973,7 @@
     </row>
     <row r="270" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="31" t="s">
-        <v>192</v>
+        <v>934</v>
       </c>
       <c r="B270" s="32" t="s">
         <v>745</v>
@@ -29456,7 +30008,7 @@
     </row>
     <row r="271" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="31" t="s">
-        <v>195</v>
+        <v>935</v>
       </c>
       <c r="B271" s="32" t="s">
         <v>747</v>
@@ -29491,7 +30043,7 @@
     </row>
     <row r="272" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="31" t="s">
-        <v>198</v>
+        <v>936</v>
       </c>
       <c r="B272" s="32" t="s">
         <v>749</v>
@@ -29526,7 +30078,7 @@
     </row>
     <row r="273" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="31" t="s">
-        <v>201</v>
+        <v>937</v>
       </c>
       <c r="B273" s="32" t="s">
         <v>751</v>
@@ -29561,7 +30113,7 @@
     </row>
     <row r="274" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="31" t="s">
-        <v>204</v>
+        <v>938</v>
       </c>
       <c r="B274" s="32" t="s">
         <v>753</v>
@@ -29596,7 +30148,7 @@
     </row>
     <row r="275" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="31" t="s">
-        <v>207</v>
+        <v>939</v>
       </c>
       <c r="B275" s="32" t="s">
         <v>754</v>
@@ -29631,7 +30183,7 @@
     </row>
     <row r="276" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="31" t="s">
-        <v>210</v>
+        <v>940</v>
       </c>
       <c r="B276" s="32" t="s">
         <v>755</v>
@@ -29666,7 +30218,7 @@
     </row>
     <row r="277" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="31" t="s">
-        <v>213</v>
+        <v>941</v>
       </c>
       <c r="B277" s="32" t="s">
         <v>756</v>
@@ -29701,7 +30253,7 @@
     </row>
     <row r="278" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="31" t="s">
-        <v>216</v>
+        <v>942</v>
       </c>
       <c r="B278" s="32" t="s">
         <v>757</v>
@@ -29736,7 +30288,7 @@
     </row>
     <row r="279" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="31" t="s">
-        <v>219</v>
+        <v>943</v>
       </c>
       <c r="B279" s="32" t="s">
         <v>758</v>
@@ -29771,7 +30323,7 @@
     </row>
     <row r="280" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="31" t="s">
-        <v>223</v>
+        <v>944</v>
       </c>
       <c r="B280" s="32" t="s">
         <v>759</v>
@@ -29806,7 +30358,7 @@
     </row>
     <row r="281" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="31" t="s">
-        <v>227</v>
+        <v>945</v>
       </c>
       <c r="B281" s="32" t="s">
         <v>760</v>
@@ -29841,7 +30393,7 @@
     </row>
     <row r="282" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="31" t="s">
-        <v>230</v>
+        <v>946</v>
       </c>
       <c r="B282" s="32" t="s">
         <v>761</v>
@@ -29876,7 +30428,7 @@
     </row>
     <row r="283" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="31" t="s">
-        <v>233</v>
+        <v>947</v>
       </c>
       <c r="B283" s="32" t="s">
         <v>762</v>
@@ -29911,7 +30463,7 @@
     </row>
     <row r="284" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="31" t="s">
-        <v>236</v>
+        <v>948</v>
       </c>
       <c r="B284" s="32" t="s">
         <v>763</v>
@@ -29946,7 +30498,7 @@
     </row>
     <row r="285" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="31" t="s">
-        <v>239</v>
+        <v>949</v>
       </c>
       <c r="B285" s="32" t="s">
         <v>764</v>
@@ -29981,7 +30533,7 @@
     </row>
     <row r="286" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="31" t="s">
-        <v>243</v>
+        <v>950</v>
       </c>
       <c r="B286" s="32" t="s">
         <v>765</v>
@@ -30016,7 +30568,7 @@
     </row>
     <row r="287" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="31" t="s">
-        <v>246</v>
+        <v>951</v>
       </c>
       <c r="B287" s="32" t="s">
         <v>766</v>
@@ -30051,7 +30603,7 @@
     </row>
     <row r="288" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="31" t="s">
-        <v>249</v>
+        <v>952</v>
       </c>
       <c r="B288" s="32" t="s">
         <v>767</v>
@@ -30086,7 +30638,7 @@
     </row>
     <row r="289" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="31" t="s">
-        <v>252</v>
+        <v>953</v>
       </c>
       <c r="B289" s="32" t="s">
         <v>768</v>
@@ -30121,7 +30673,7 @@
     </row>
     <row r="290" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="31" t="s">
-        <v>256</v>
+        <v>954</v>
       </c>
       <c r="B290" s="32" t="s">
         <v>769</v>
@@ -30156,7 +30708,7 @@
     </row>
     <row r="291" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="31" t="s">
-        <v>259</v>
+        <v>955</v>
       </c>
       <c r="B291" s="32" t="s">
         <v>770</v>
@@ -30191,7 +30743,7 @@
     </row>
     <row r="292" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="31" t="s">
-        <v>263</v>
+        <v>956</v>
       </c>
       <c r="B292" s="32" t="s">
         <v>771</v>
@@ -30226,7 +30778,7 @@
     </row>
     <row r="293" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="31" t="s">
-        <v>266</v>
+        <v>957</v>
       </c>
       <c r="B293" s="32" t="s">
         <v>772</v>
@@ -30261,7 +30813,7 @@
     </row>
     <row r="294" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="31" t="s">
-        <v>270</v>
+        <v>958</v>
       </c>
       <c r="B294" s="32" t="s">
         <v>773</v>
@@ -30296,7 +30848,7 @@
     </row>
     <row r="295" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="31" t="s">
-        <v>273</v>
+        <v>959</v>
       </c>
       <c r="B295" s="32" t="s">
         <v>774</v>
@@ -30331,7 +30883,7 @@
     </row>
     <row r="296" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="31" t="s">
-        <v>276</v>
+        <v>960</v>
       </c>
       <c r="B296" s="32" t="s">
         <v>775</v>
@@ -30366,7 +30918,7 @@
     </row>
     <row r="297" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="31" t="s">
-        <v>279</v>
+        <v>961</v>
       </c>
       <c r="B297" s="32" t="s">
         <v>776</v>
@@ -30401,7 +30953,7 @@
     </row>
     <row r="298" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="31" t="s">
-        <v>282</v>
+        <v>962</v>
       </c>
       <c r="B298" s="32" t="s">
         <v>777</v>
@@ -30436,7 +30988,7 @@
     </row>
     <row r="299" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="31" t="s">
-        <v>285</v>
+        <v>963</v>
       </c>
       <c r="B299" s="32" t="s">
         <v>778</v>
@@ -30471,7 +31023,7 @@
     </row>
     <row r="300" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="31" t="s">
-        <v>288</v>
+        <v>964</v>
       </c>
       <c r="B300" s="32" t="s">
         <v>779</v>
@@ -30506,7 +31058,7 @@
     </row>
     <row r="301" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="31" t="s">
-        <v>291</v>
+        <v>965</v>
       </c>
       <c r="B301" s="32" t="s">
         <v>780</v>
@@ -30541,7 +31093,7 @@
     </row>
     <row r="302" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="31" t="s">
-        <v>294</v>
+        <v>966</v>
       </c>
       <c r="B302" s="32" t="s">
         <v>781</v>
@@ -30576,7 +31128,7 @@
     </row>
     <row r="303" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="31" t="s">
-        <v>297</v>
+        <v>967</v>
       </c>
       <c r="B303" s="32" t="s">
         <v>782</v>
@@ -30611,7 +31163,7 @@
     </row>
     <row r="304" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="31" t="s">
-        <v>300</v>
+        <v>968</v>
       </c>
       <c r="B304" s="32" t="s">
         <v>783</v>
@@ -30646,7 +31198,7 @@
     </row>
     <row r="305" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="31" t="s">
-        <v>304</v>
+        <v>969</v>
       </c>
       <c r="B305" s="32" t="s">
         <v>784</v>
@@ -30681,7 +31233,7 @@
     </row>
     <row r="306" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="31" t="s">
-        <v>307</v>
+        <v>970</v>
       </c>
       <c r="B306" s="32" t="s">
         <v>785</v>
@@ -30716,7 +31268,7 @@
     </row>
     <row r="307" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="31" t="s">
-        <v>311</v>
+        <v>971</v>
       </c>
       <c r="B307" s="32" t="s">
         <v>786</v>
@@ -30751,7 +31303,7 @@
     </row>
     <row r="308" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="31" t="s">
-        <v>314</v>
+        <v>972</v>
       </c>
       <c r="B308" s="32" t="s">
         <v>787</v>
@@ -30786,7 +31338,7 @@
     </row>
     <row r="309" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="31" t="s">
-        <v>317</v>
+        <v>973</v>
       </c>
       <c r="B309" s="32" t="s">
         <v>788</v>
@@ -30821,7 +31373,7 @@
     </row>
     <row r="310" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="31" t="s">
-        <v>321</v>
+        <v>974</v>
       </c>
       <c r="B310" s="32" t="s">
         <v>789</v>
@@ -30856,7 +31408,7 @@
     </row>
     <row r="311" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="31" t="s">
-        <v>324</v>
+        <v>975</v>
       </c>
       <c r="B311" s="32" t="s">
         <v>790</v>
@@ -30891,7 +31443,7 @@
     </row>
     <row r="312" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="31" t="s">
-        <v>327</v>
+        <v>976</v>
       </c>
       <c r="B312" s="32" t="s">
         <v>791</v>
@@ -30926,7 +31478,7 @@
     </row>
     <row r="313" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="31" t="s">
-        <v>330</v>
+        <v>977</v>
       </c>
       <c r="B313" s="32" t="s">
         <v>792</v>
@@ -30961,7 +31513,7 @@
     </row>
     <row r="314" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="31" t="s">
-        <v>334</v>
+        <v>978</v>
       </c>
       <c r="B314" s="32" t="s">
         <v>793</v>
@@ -30996,7 +31548,7 @@
     </row>
     <row r="315" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="31" t="s">
-        <v>337</v>
+        <v>979</v>
       </c>
       <c r="B315" s="32" t="s">
         <v>794</v>
@@ -31031,7 +31583,7 @@
     </row>
     <row r="316" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="31" t="s">
-        <v>340</v>
+        <v>980</v>
       </c>
       <c r="B316" s="32" t="s">
         <v>795</v>
@@ -31066,7 +31618,7 @@
     </row>
     <row r="317" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="31" t="s">
-        <v>343</v>
+        <v>981</v>
       </c>
       <c r="B317" s="32" t="s">
         <v>796</v>
@@ -31101,7 +31653,7 @@
     </row>
     <row r="318" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="31" t="s">
-        <v>346</v>
+        <v>982</v>
       </c>
       <c r="B318" s="32" t="s">
         <v>797</v>
@@ -31136,7 +31688,7 @@
     </row>
     <row r="319" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="31" t="s">
-        <v>350</v>
+        <v>983</v>
       </c>
       <c r="B319" s="32" t="s">
         <v>798</v>
@@ -31171,7 +31723,7 @@
     </row>
     <row r="320" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="31" t="s">
-        <v>353</v>
+        <v>984</v>
       </c>
       <c r="B320" s="32" t="s">
         <v>799</v>
@@ -31206,7 +31758,7 @@
     </row>
     <row r="321" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="31" t="s">
-        <v>357</v>
+        <v>985</v>
       </c>
       <c r="B321" s="32" t="s">
         <v>800</v>
@@ -31241,7 +31793,7 @@
     </row>
     <row r="322" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="31" t="s">
-        <v>360</v>
+        <v>986</v>
       </c>
       <c r="B322" s="32" t="s">
         <v>801</v>
@@ -31276,7 +31828,7 @@
     </row>
     <row r="323" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="31" t="s">
-        <v>364</v>
+        <v>987</v>
       </c>
       <c r="B323" s="32" t="s">
         <v>802</v>
@@ -31311,7 +31863,7 @@
     </row>
     <row r="324" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="31" t="s">
-        <v>367</v>
+        <v>988</v>
       </c>
       <c r="B324" s="32" t="s">
         <v>803</v>
@@ -31346,7 +31898,7 @@
     </row>
     <row r="325" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="31" t="s">
-        <v>370</v>
+        <v>989</v>
       </c>
       <c r="B325" s="32" t="s">
         <v>804</v>
@@ -31381,7 +31933,7 @@
     </row>
     <row r="326" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="31" t="s">
-        <v>373</v>
+        <v>990</v>
       </c>
       <c r="B326" s="32" t="s">
         <v>805</v>
@@ -31416,7 +31968,7 @@
     </row>
     <row r="327" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="31" t="s">
-        <v>376</v>
+        <v>991</v>
       </c>
       <c r="B327" s="32" t="s">
         <v>806</v>
@@ -31451,7 +32003,7 @@
     </row>
     <row r="328" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="31" t="s">
-        <v>379</v>
+        <v>992</v>
       </c>
       <c r="B328" s="32" t="s">
         <v>807</v>
@@ -31486,7 +32038,7 @@
     </row>
     <row r="329" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="31" t="s">
-        <v>383</v>
+        <v>993</v>
       </c>
       <c r="B329" s="32" t="s">
         <v>808</v>
@@ -31521,7 +32073,7 @@
     </row>
     <row r="330" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="31" t="s">
-        <v>386</v>
+        <v>994</v>
       </c>
       <c r="B330" s="32" t="s">
         <v>809</v>
@@ -31556,7 +32108,7 @@
     </row>
     <row r="331" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="31" t="s">
-        <v>389</v>
+        <v>995</v>
       </c>
       <c r="B331" s="32" t="s">
         <v>810</v>
@@ -31591,7 +32143,7 @@
     </row>
     <row r="332" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="31" t="s">
-        <v>392</v>
+        <v>996</v>
       </c>
       <c r="B332" s="32" t="s">
         <v>811</v>
@@ -31626,7 +32178,7 @@
     </row>
     <row r="333" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="31" t="s">
-        <v>395</v>
+        <v>997</v>
       </c>
       <c r="B333" s="32" t="s">
         <v>812</v>
@@ -31661,7 +32213,7 @@
     </row>
     <row r="334" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="31" t="s">
-        <v>398</v>
+        <v>998</v>
       </c>
       <c r="B334" s="32" t="s">
         <v>813</v>
@@ -31696,7 +32248,7 @@
     </row>
     <row r="335" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="31" t="s">
-        <v>402</v>
+        <v>999</v>
       </c>
       <c r="B335" s="32" t="s">
         <v>814</v>
@@ -31731,7 +32283,7 @@
     </row>
     <row r="336" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="31" t="s">
-        <v>405</v>
+        <v>1000</v>
       </c>
       <c r="B336" s="32" t="s">
         <v>815</v>
@@ -31766,7 +32318,7 @@
     </row>
     <row r="337" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="31" t="s">
-        <v>408</v>
+        <v>1001</v>
       </c>
       <c r="B337" s="32" t="s">
         <v>816</v>
@@ -31801,7 +32353,7 @@
     </row>
     <row r="338" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="31" t="s">
-        <v>411</v>
+        <v>1002</v>
       </c>
       <c r="B338" s="32" t="s">
         <v>817</v>
@@ -31836,7 +32388,7 @@
     </row>
     <row r="339" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="31" t="s">
-        <v>414</v>
+        <v>1003</v>
       </c>
       <c r="B339" s="32" t="s">
         <v>818</v>
@@ -31871,7 +32423,7 @@
     </row>
     <row r="340" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="31" t="s">
-        <v>417</v>
+        <v>1004</v>
       </c>
       <c r="B340" s="32" t="s">
         <v>819</v>
@@ -31906,7 +32458,7 @@
     </row>
     <row r="341" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="31" t="s">
-        <v>420</v>
+        <v>1005</v>
       </c>
       <c r="B341" s="32" t="s">
         <v>820</v>
@@ -31941,7 +32493,7 @@
     </row>
     <row r="342" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="31" t="s">
-        <v>424</v>
+        <v>1006</v>
       </c>
       <c r="B342" s="32" t="s">
         <v>821</v>
@@ -31976,7 +32528,7 @@
     </row>
     <row r="343" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="31" t="s">
-        <v>427</v>
+        <v>1007</v>
       </c>
       <c r="B343" s="32" t="s">
         <v>822</v>
@@ -32011,7 +32563,7 @@
     </row>
     <row r="344" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="31" t="s">
-        <v>431</v>
+        <v>1008</v>
       </c>
       <c r="B344" s="32" t="s">
         <v>823</v>
@@ -32046,7 +32598,7 @@
     </row>
     <row r="345" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="31" t="s">
-        <v>434</v>
+        <v>1009</v>
       </c>
       <c r="B345" s="32" t="s">
         <v>824</v>
@@ -32081,7 +32633,7 @@
     </row>
     <row r="346" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="31" t="s">
-        <v>438</v>
+        <v>1010</v>
       </c>
       <c r="B346" s="32" t="s">
         <v>825</v>
@@ -32116,7 +32668,7 @@
     </row>
     <row r="347" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="31" t="s">
-        <v>441</v>
+        <v>1011</v>
       </c>
       <c r="B347" s="32" t="s">
         <v>826</v>
@@ -32151,7 +32703,7 @@
     </row>
     <row r="348" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="31" t="s">
-        <v>444</v>
+        <v>1012</v>
       </c>
       <c r="B348" s="32" t="s">
         <v>827</v>
@@ -32186,7 +32738,7 @@
     </row>
     <row r="349" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="31" t="s">
-        <v>447</v>
+        <v>1013</v>
       </c>
       <c r="B349" s="32" t="s">
         <v>828</v>
@@ -32221,7 +32773,7 @@
     </row>
     <row r="350" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="31" t="s">
-        <v>450</v>
+        <v>1014</v>
       </c>
       <c r="B350" s="32" t="s">
         <v>829</v>
@@ -32256,7 +32808,7 @@
     </row>
     <row r="351" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="31" t="s">
-        <v>454</v>
+        <v>1015</v>
       </c>
       <c r="B351" s="32" t="s">
         <v>830</v>
@@ -32291,7 +32843,7 @@
     </row>
     <row r="352" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="31" t="s">
-        <v>457</v>
+        <v>1016</v>
       </c>
       <c r="B352" s="32" t="s">
         <v>831</v>
@@ -32326,7 +32878,7 @@
     </row>
     <row r="353" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="31" t="s">
-        <v>460</v>
+        <v>1017</v>
       </c>
       <c r="B353" s="32" t="s">
         <v>832</v>
@@ -32361,7 +32913,7 @@
     </row>
     <row r="354" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="31" t="s">
-        <v>463</v>
+        <v>1018</v>
       </c>
       <c r="B354" s="32" t="s">
         <v>833</v>
@@ -32396,7 +32948,7 @@
     </row>
     <row r="355" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="31" t="s">
-        <v>466</v>
+        <v>1019</v>
       </c>
       <c r="B355" s="32" t="s">
         <v>834</v>
@@ -32431,7 +32983,7 @@
     </row>
     <row r="356" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="31" t="s">
-        <v>469</v>
+        <v>1020</v>
       </c>
       <c r="B356" s="32" t="s">
         <v>835</v>
@@ -32466,7 +33018,7 @@
     </row>
     <row r="357" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="31" t="s">
-        <v>472</v>
+        <v>1021</v>
       </c>
       <c r="B357" s="32" t="s">
         <v>836</v>
@@ -32501,7 +33053,7 @@
     </row>
     <row r="358" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="31" t="s">
-        <v>475</v>
+        <v>1022</v>
       </c>
       <c r="B358" s="32" t="s">
         <v>837</v>
@@ -32536,7 +33088,7 @@
     </row>
     <row r="359" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="31" t="s">
-        <v>478</v>
+        <v>1023</v>
       </c>
       <c r="B359" s="32" t="s">
         <v>838</v>
@@ -32571,7 +33123,7 @@
     </row>
     <row r="360" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="31" t="s">
-        <v>481</v>
+        <v>1024</v>
       </c>
       <c r="B360" s="32" t="s">
         <v>839</v>
@@ -32606,7 +33158,7 @@
     </row>
     <row r="361" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="31" t="s">
-        <v>484</v>
+        <v>1025</v>
       </c>
       <c r="B361" s="32" t="s">
         <v>840</v>
@@ -32641,7 +33193,7 @@
     </row>
     <row r="362" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="31" t="s">
-        <v>487</v>
+        <v>1026</v>
       </c>
       <c r="B362" s="32" t="s">
         <v>841</v>
@@ -32676,7 +33228,7 @@
     </row>
     <row r="363" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="31" t="s">
-        <v>491</v>
+        <v>1027</v>
       </c>
       <c r="B363" s="32" t="s">
         <v>842</v>
@@ -32711,7 +33263,7 @@
     </row>
     <row r="364" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="31" t="s">
-        <v>494</v>
+        <v>1028</v>
       </c>
       <c r="B364" s="32" t="s">
         <v>843</v>
@@ -32746,7 +33298,7 @@
     </row>
     <row r="365" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="31" t="s">
-        <v>497</v>
+        <v>1029</v>
       </c>
       <c r="B365" s="32" t="s">
         <v>844</v>
@@ -32781,7 +33333,7 @@
     </row>
     <row r="366" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="31" t="s">
-        <v>500</v>
+        <v>1030</v>
       </c>
       <c r="B366" s="32" t="s">
         <v>845</v>
@@ -32816,7 +33368,7 @@
     </row>
     <row r="367" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="31" t="s">
-        <v>503</v>
+        <v>1031</v>
       </c>
       <c r="B367" s="32" t="s">
         <v>846</v>
@@ -32851,7 +33403,7 @@
     </row>
     <row r="368" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="31" t="s">
-        <v>506</v>
+        <v>1032</v>
       </c>
       <c r="B368" s="32" t="s">
         <v>847</v>
@@ -32886,7 +33438,7 @@
     </row>
     <row r="369" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="31" t="s">
-        <v>509</v>
+        <v>1033</v>
       </c>
       <c r="B369" s="32" t="s">
         <v>848</v>
@@ -32921,7 +33473,7 @@
     </row>
     <row r="370" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="31" t="s">
-        <v>513</v>
+        <v>1034</v>
       </c>
       <c r="B370" s="32" t="s">
         <v>849</v>
@@ -32956,7 +33508,7 @@
     </row>
     <row r="371" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="31" t="s">
-        <v>516</v>
+        <v>1035</v>
       </c>
       <c r="B371" s="32" t="s">
         <v>850</v>
@@ -32991,7 +33543,7 @@
     </row>
     <row r="372" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="31" t="s">
-        <v>519</v>
+        <v>1036</v>
       </c>
       <c r="B372" s="32" t="s">
         <v>851</v>
@@ -33026,7 +33578,7 @@
     </row>
     <row r="373" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="31" t="s">
-        <v>522</v>
+        <v>1037</v>
       </c>
       <c r="B373" s="32" t="s">
         <v>852</v>
@@ -33061,7 +33613,7 @@
     </row>
     <row r="374" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="31" t="s">
-        <v>525</v>
+        <v>1038</v>
       </c>
       <c r="B374" s="32" t="s">
         <v>853</v>
@@ -33096,7 +33648,7 @@
     </row>
     <row r="375" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="31" t="s">
-        <v>528</v>
+        <v>1039</v>
       </c>
       <c r="B375" s="32" t="s">
         <v>854</v>
@@ -33131,7 +33683,7 @@
     </row>
     <row r="376" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="31" t="s">
-        <v>531</v>
+        <v>1040</v>
       </c>
       <c r="B376" s="32" t="s">
         <v>855</v>
@@ -33166,7 +33718,7 @@
     </row>
     <row r="377" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="31" t="s">
-        <v>534</v>
+        <v>1041</v>
       </c>
       <c r="B377" s="32" t="s">
         <v>856</v>
@@ -33201,7 +33753,7 @@
     </row>
     <row r="378" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="31" t="s">
-        <v>537</v>
+        <v>1042</v>
       </c>
       <c r="B378" s="32" t="s">
         <v>857</v>
@@ -33236,7 +33788,7 @@
     </row>
     <row r="379" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="31" t="s">
-        <v>541</v>
+        <v>1043</v>
       </c>
       <c r="B379" s="32" t="s">
         <v>858</v>
@@ -33271,7 +33823,7 @@
     </row>
     <row r="380" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="31" t="s">
-        <v>544</v>
+        <v>1044</v>
       </c>
       <c r="B380" s="32" t="s">
         <v>859</v>
@@ -33306,7 +33858,7 @@
     </row>
     <row r="381" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="31" t="s">
-        <v>547</v>
+        <v>1045</v>
       </c>
       <c r="B381" s="32" t="s">
         <v>860</v>
@@ -33341,7 +33893,7 @@
     </row>
     <row r="382" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="31" t="s">
-        <v>550</v>
+        <v>1046</v>
       </c>
       <c r="B382" s="32" t="s">
         <v>861</v>
@@ -33376,7 +33928,7 @@
     </row>
     <row r="383" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="31" t="s">
-        <v>553</v>
+        <v>1047</v>
       </c>
       <c r="B383" s="32" t="s">
         <v>862</v>
@@ -33411,7 +33963,7 @@
     </row>
     <row r="384" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="31" t="s">
-        <v>556</v>
+        <v>1048</v>
       </c>
       <c r="B384" s="32" t="s">
         <v>864</v>
@@ -33446,7 +33998,7 @@
     </row>
     <row r="385" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="31" t="s">
-        <v>559</v>
+        <v>1049</v>
       </c>
       <c r="B385" s="32" t="s">
         <v>865</v>
@@ -33481,7 +34033,7 @@
     </row>
     <row r="386" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="31" t="s">
-        <v>562</v>
+        <v>1050</v>
       </c>
       <c r="B386" s="32" t="s">
         <v>866</v>
@@ -33516,7 +34068,7 @@
     </row>
     <row r="387" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="31" t="s">
-        <v>565</v>
+        <v>1051</v>
       </c>
       <c r="B387" s="32" t="s">
         <v>867</v>
@@ -33551,7 +34103,7 @@
     </row>
     <row r="388" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="31" t="s">
-        <v>568</v>
+        <v>1052</v>
       </c>
       <c r="B388" s="32" t="s">
         <v>868</v>
@@ -33586,7 +34138,7 @@
     </row>
     <row r="389" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="31" t="s">
-        <v>572</v>
+        <v>1053</v>
       </c>
       <c r="B389" s="32" t="s">
         <v>869</v>
@@ -33621,7 +34173,7 @@
     </row>
     <row r="390" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="31" t="s">
-        <v>575</v>
+        <v>1054</v>
       </c>
       <c r="B390" s="32" t="s">
         <v>870</v>
@@ -33656,7 +34208,7 @@
     </row>
     <row r="391" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="31" t="s">
-        <v>578</v>
+        <v>1055</v>
       </c>
       <c r="B391" s="32" t="s">
         <v>871</v>
@@ -33691,7 +34243,7 @@
     </row>
     <row r="392" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="31" t="s">
-        <v>581</v>
+        <v>1056</v>
       </c>
       <c r="B392" s="32" t="s">
         <v>872</v>
@@ -33726,7 +34278,7 @@
     </row>
     <row r="393" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="31" t="s">
-        <v>585</v>
+        <v>1057</v>
       </c>
       <c r="B393" s="32" t="s">
         <v>873</v>
@@ -33761,7 +34313,7 @@
     </row>
     <row r="394" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="31" t="s">
-        <v>589</v>
+        <v>1058</v>
       </c>
       <c r="B394" s="32" t="s">
         <v>874</v>
@@ -33796,7 +34348,7 @@
     </row>
     <row r="395" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="31" t="s">
-        <v>593</v>
+        <v>1059</v>
       </c>
       <c r="B395" s="32" t="s">
         <v>875</v>
@@ -33831,7 +34383,7 @@
     </row>
     <row r="396" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="31" t="s">
-        <v>596</v>
+        <v>1060</v>
       </c>
       <c r="B396" s="32" t="s">
         <v>876</v>
@@ -33866,7 +34418,7 @@
     </row>
     <row r="397" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="31" t="s">
-        <v>599</v>
+        <v>1061</v>
       </c>
       <c r="B397" s="32" t="s">
         <v>877</v>
@@ -33901,7 +34453,7 @@
     </row>
     <row r="398" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="31" t="s">
-        <v>602</v>
+        <v>1062</v>
       </c>
       <c r="B398" s="32" t="s">
         <v>878</v>
@@ -33936,7 +34488,7 @@
     </row>
     <row r="399" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="31" t="s">
-        <v>605</v>
+        <v>1063</v>
       </c>
       <c r="B399" s="32" t="s">
         <v>879</v>
@@ -33971,7 +34523,7 @@
     </row>
     <row r="400" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="31" t="s">
-        <v>608</v>
+        <v>1064</v>
       </c>
       <c r="B400" s="32" t="s">
         <v>880</v>
@@ -34006,7 +34558,7 @@
     </row>
     <row r="401" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="31" t="s">
-        <v>611</v>
+        <v>1065</v>
       </c>
       <c r="B401" s="32" t="s">
         <v>881</v>
@@ -34041,7 +34593,7 @@
     </row>
     <row r="402" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="31" t="s">
-        <v>614</v>
+        <v>1066</v>
       </c>
       <c r="B402" s="32" t="s">
         <v>882</v>
